--- a/files_utili/fatture.xlsx
+++ b/files_utili/fatture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,9 +441,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65543</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>321</t>
         </is>
       </c>
     </row>

--- a/files_utili/fatture.xlsx
+++ b/files_utili/fatture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,9 +456,49 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>1328</t>
         </is>
       </c>
     </row>

--- a/files_utili/fatture.xlsx
+++ b/files_utili/fatture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,9 +496,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1502</t>
         </is>
       </c>
     </row>
